--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1026294.767997847</v>
+        <v>-1028182.349514249</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>210.4693773782676</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>88.69417517513853</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>185.3997192893057</v>
       </c>
       <c r="V4" t="n">
-        <v>141.3236091729814</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>191.3215523712055</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>42.92268698704568</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>67.17737911999818</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>195.3479782431506</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.3600672605032</v>
+        <v>257.7679198008237</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8100533453329</v>
+        <v>27.60424748687867</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.46137625926761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>100.4879364842346</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>46.34216896083848</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>206.8933087008743</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>2.031590062604437</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>163.3521163017836</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>22.70687809647566</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168573</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>21.67585276665777</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>251.8375887484815</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>137.6773810022431</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>213.8889536739942</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>94.54346395122417</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>6.587006371416436</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463153</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>819.715945170047</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>433.9276925718028</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="3">
@@ -4413,13 +4413,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>540.8565404798628</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>540.8565404798628</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.534876920951</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>825.5723599805394</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>825.5723599805394</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>825.5723599805394</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>818.626859231336</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>400.6630511295228</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4598,19 +4598,19 @@
         <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2258.980686822591</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.274048960885</v>
+        <v>1554.45204121794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.134716985073</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,37 +4650,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694738</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>290.7987205870807</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>290.7987205870807</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>121.7989203254131</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>530.8077940618376</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>530.8077940618376</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.749745823171</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C8" t="n">
-        <v>1141.749745823171</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="D8" t="n">
-        <v>1141.749745823171</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="E8" t="n">
-        <v>755.9614932249267</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887293</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.349585887293</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
         <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>572.7652939586234</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="U10" t="n">
-        <v>572.7652939586234</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V10" t="n">
-        <v>572.7652939586234</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W10" t="n">
-        <v>572.7652939586234</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>572.7652939586234</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.095276920732</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2187.63534213943</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.657822921639</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>509.2863307027325</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>509.2863307027325</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1311.617554736629</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1087.832139526135</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>798.7035007396931</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>798.7035007396931</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>509.2863307027325</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>509.2863307027325</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="Y13" t="n">
-        <v>509.2863307027325</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028562</v>
@@ -5285,16 +5285,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L15" t="n">
-        <v>614.2381923230585</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M15" t="n">
-        <v>921.55832560302</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.969903867171</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>294.1440025502362</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C16" t="n">
-        <v>294.1440025502362</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>144.0273631379005</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>144.0273631379005</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609666</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>986.0022165609666</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>696.585046524006</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X16" t="n">
-        <v>696.585046524006</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.792467380476</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,25 +5537,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5580,40 +5580,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>416.1184791449338</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C19" t="n">
-        <v>247.1822962170269</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
         <v>245.130185042679</v>
@@ -5674,49 +5674,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>898.792518248838</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429511</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W19" t="n">
-        <v>644.1080300429511</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X19" t="n">
-        <v>416.1184791449338</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y19" t="n">
-        <v>416.1184791449338</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.3105644220434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>565.3743814941365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>565.3743814941365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>417.4612879117435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5713404138331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655735</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>955.1031435655735</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X22" t="n">
-        <v>955.1031435655735</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>734.3105644220434</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.1184791449338</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C25" t="n">
-        <v>394.223678370532</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488382</v>
+        <v>709.7543390485417</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429513</v>
+        <v>709.7543390485417</v>
       </c>
       <c r="W25" t="n">
-        <v>644.1080300429513</v>
+        <v>709.7543390485417</v>
       </c>
       <c r="X25" t="n">
-        <v>416.1184791449338</v>
+        <v>709.7543390485417</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.1184791449338</v>
+        <v>709.7543390485417</v>
       </c>
     </row>
     <row r="26">
@@ -6215,34 +6215,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.3735683412856</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C28" t="n">
-        <v>552.3735683412856</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D28" t="n">
-        <v>552.3735683412856</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E28" t="n">
-        <v>404.4604747588925</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352016</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150553</v>
+        <v>1028.182334196465</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8146123150553</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.0220331715252</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>735.0407559057238</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508392</v>
+        <v>656.2176762508384</v>
       </c>
       <c r="C31" t="n">
-        <v>543.0423586043032</v>
+        <v>543.0423586043024</v>
       </c>
       <c r="D31" t="n">
-        <v>448.6865844733383</v>
+        <v>448.6865844733376</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723159</v>
+        <v>356.5343561723154</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557763</v>
+        <v>265.4052739557759</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.313376463691</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1785.313376463691</v>
+        <v>1785.313376463689</v>
       </c>
       <c r="U31" t="n">
-        <v>1551.94560295862</v>
+        <v>1551.945602958618</v>
       </c>
       <c r="V31" t="n">
-        <v>1353.021980034104</v>
+        <v>1353.021980034102</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278514</v>
+        <v>1119.365675278513</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618673</v>
+        <v>947.1369896618664</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.1052757997081</v>
+        <v>782.1052757997072</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,31 +6719,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1632.773754790662</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6947,7 +6947,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>735.0407559057232</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1503.408902298185</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.271529962218</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,19 +7488,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1841.189502980821</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2361.490124716568</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.4977453535105</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L15" t="n">
-        <v>80.50021372615271</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9246,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>18.73797368291389</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>18.73797368291349</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.6026921294541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>202.5230052237944</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>76.43196988338491</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>253.7371603504737</v>
+        <v>127.646125010065</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.9802687929764</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>122.4594337243356</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>125.2217189048026</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>99.07887906209277</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>11.69134465122052</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>146.5838829556079</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>88.78552702204442</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>143.7866903669019</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.30500338172007</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>145.5709683319701</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.39976365009582</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>7.74366702068815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>72.63404466259678</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
-        <v>48.17408940382198</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>159.7572980584156</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728566</v>
@@ -26323,7 +26323,7 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
         <v>156411.6238950835</v>
@@ -26338,19 +26338,19 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.854938108</v>
+        <v>162728.8549381079</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275955</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275959</v>
+      </c>
+      <c r="N4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.45686275958</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,28 +26482,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26525,43 +26525,43 @@
         <v>-75425.68234177545</v>
       </c>
       <c r="D6" t="n">
-        <v>-75425.68234177546</v>
+        <v>-75425.68234177548</v>
       </c>
       <c r="E6" t="n">
-        <v>-475781.4081519682</v>
+        <v>-475878.8672779406</v>
       </c>
       <c r="F6" t="n">
-        <v>49378.62832492783</v>
+        <v>49281.16919895555</v>
       </c>
       <c r="G6" t="n">
-        <v>49378.62832492772</v>
+        <v>49281.16919895563</v>
       </c>
       <c r="H6" t="n">
-        <v>49378.62832492781</v>
+        <v>49281.16919895564</v>
       </c>
       <c r="I6" t="n">
-        <v>49378.62832492775</v>
+        <v>49281.1691989556</v>
       </c>
       <c r="J6" t="n">
-        <v>-127044.5908676651</v>
+        <v>-127142.0499936374</v>
       </c>
       <c r="K6" t="n">
-        <v>-11272.25103059616</v>
+        <v>-11290.74476853071</v>
       </c>
       <c r="L6" t="n">
-        <v>18685.88448920485</v>
+        <v>18685.88448920507</v>
       </c>
       <c r="M6" t="n">
-        <v>-105772.2239437653</v>
+        <v>-105772.2239437656</v>
       </c>
       <c r="N6" t="n">
-        <v>29028.79129007182</v>
+        <v>29028.79129007176</v>
       </c>
       <c r="O6" t="n">
-        <v>29028.79129007178</v>
+        <v>29028.79129007181</v>
       </c>
       <c r="P6" t="n">
-        <v>-15133.81401277387</v>
+        <v>-15133.81401277396</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855723</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.4066683634438</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>281.0369255033305</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>100.8821549526721</v>
       </c>
       <c r="V4" t="n">
-        <v>110.8140341508466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>132.6012203931516</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>208.3014805212436</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.99350972179697</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>16.7975607068683</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.5159784812083</v>
+        <v>149.1081259408877</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.22505211275134</v>
+        <v>197.4308579712056</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.697723443309466e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.5107781385846</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L15" t="n">
-        <v>329.757918682177</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>225.8313886144385</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>351.9325470809263</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>373.6013019241296</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>201.6157249145282</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>451.7807101798187</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412273</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043196</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>387.238612517683</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,16 +37543,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>325.6896748394092</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,19 +37865,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>536.1008625915819</v>
+        <v>410.0098272511731</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>253.9933015780506</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
